--- a/biology/Botanique/Marojejya_darianii/Marojejya_darianii.xlsx
+++ b/biology/Botanique/Marojejya_darianii/Marojejya_darianii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marojejya darianii est une espèce de plantes de la famille des Arecaceae. On ne la trouve qu'à Madagascar. Elle est en danger critique d'extinction et menacée d'extinction en raison de la perte de son habitat.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Principes 28(4): 151. 1984.
 </t>
